--- a/cypress/fixtures/Excel Files/Club Data/Host Data/Host Data.xlsx
+++ b/cypress/fixtures/Excel Files/Club Data/Host Data/Host Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Automations\cypress\fixtures\Excel Files\Club Data\Host Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E81CF5-3E2F-40DE-846B-1C6027BE4350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953DAF72-8CE3-40A6-8A37-6320EEB872EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Moment Club" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="217">
   <si>
     <t>hostName</t>
   </si>
@@ -665,6 +665,18 @@
   </si>
   <si>
     <t>準執行部</t>
+  </si>
+  <si>
+    <t>GalleryImageList</t>
+  </si>
+  <si>
+    <t>["D:/Web Automations/cypress/fixtures/Files/Host Images/profile.jpg","D:/Web Automations/cypress/fixtures/Files/Host Images/host1.jpg","D:/Web Automations/cypress/fixtures/Files/Host Images/host2.jpeg"]</t>
+  </si>
+  <si>
+    <t>D:/Web Automations/cypress/fixtures/Files/Host Images/host1.jpg</t>
+  </si>
+  <si>
+    <t>D:/Web Automations/cypress/fixtures/Files/Host Images/host3.png\</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1027,7 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1154,14 +1166,23 @@
       <c r="AT1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
       <c r="E2" t="s">
         <v>211</v>
       </c>
@@ -1192,8 +1213,11 @@
       <c r="Z2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
@@ -1206,8 +1230,11 @@
       <c r="I3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -1220,8 +1247,11 @@
       <c r="J4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -1241,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
@@ -1258,7 +1288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
@@ -1269,7 +1299,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -1280,7 +1310,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
@@ -1291,7 +1321,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -1302,7 +1332,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>

--- a/cypress/fixtures/Excel Files/Club Data/Host Data/Host Data.xlsx
+++ b/cypress/fixtures/Excel Files/Club Data/Host Data/Host Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Automations\cypress\fixtures\Excel Files\Club Data\Host Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953DAF72-8CE3-40A6-8A37-6320EEB872EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C0763B-5CAA-43F3-BE48-8DEA8F8EF847}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Moment Club" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Galaxy Club" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="218">
   <si>
     <t>hostName</t>
   </si>
@@ -661,9 +662,6 @@
     <t>小林 かずき</t>
   </si>
   <si>
-    <t>Unrank</t>
-  </si>
-  <si>
     <t>準執行部</t>
   </si>
   <si>
@@ -677,6 +675,12 @@
   </si>
   <si>
     <t>D:/Web Automations/cypress/fixtures/Files/Host Images/host3.png\</t>
+  </si>
+  <si>
+    <t>ランクなし</t>
+  </si>
+  <si>
+    <t>D:/Club Images</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI17" sqref="AI17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1171,7 @@
         <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
@@ -1178,16 +1182,16 @@
         <v>94</v>
       </c>
       <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
         <v>215</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>216</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="H2">
         <v>1998</v>
@@ -1214,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="AU2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1225,13 +1229,13 @@
         <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
       <c r="AU3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,13 +1246,13 @@
         <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="AU4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,7 +1263,7 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H5">
         <v>1995</v>
@@ -1279,7 +1283,7 @@
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -1296,7 +1300,7 @@
         <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -1307,7 +1311,7 @@
         <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -1318,7 +1322,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,7 +1333,7 @@
         <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1340,7 +1344,7 @@
         <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1350,11 +1354,353 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353EE31C-688B-47C1-8735-F2037AC5AC07}">
+  <dimension ref="A1:AU14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2">
+        <v>1998</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5">
+        <v>1995</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD90B9DC-EB4D-4EA9-B847-AC35D331F14F}">
   <dimension ref="B1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F60"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cypress/fixtures/Excel Files/Club Data/Host Data/Host Data.xlsx
+++ b/cypress/fixtures/Excel Files/Club Data/Host Data/Host Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Automations\cypress\fixtures\Excel Files\Club Data\Host Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C0763B-5CAA-43F3-BE48-8DEA8F8EF847}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34799C71-84ED-4418-BAAB-19A2DAA4C67A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="218">
   <si>
     <t>hostName</t>
   </si>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353EE31C-688B-47C1-8735-F2037AC5AC07}">
   <dimension ref="A1:AU14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AZ16" sqref="AZ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,12 +1516,6 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" t="s">
-        <v>215</v>
       </c>
       <c r="E2" t="s">
         <v>216</v>

--- a/cypress/fixtures/Excel Files/Club Data/Host Data/Host Data.xlsx
+++ b/cypress/fixtures/Excel Files/Club Data/Host Data/Host Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Automations\cypress\fixtures\Excel Files\Club Data\Host Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34799C71-84ED-4418-BAAB-19A2DAA4C67A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B17A78C-CF8D-4D1F-81B4-135F5F623986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="217">
   <si>
     <t>hostName</t>
   </si>
@@ -666,9 +666,6 @@
   </si>
   <si>
     <t>GalleryImageList</t>
-  </si>
-  <si>
-    <t>["D:/Web Automations/cypress/fixtures/Files/Host Images/profile.jpg","D:/Web Automations/cypress/fixtures/Files/Host Images/host1.jpg","D:/Web Automations/cypress/fixtures/Files/Host Images/host2.jpeg"]</t>
   </si>
   <si>
     <t>D:/Web Automations/cypress/fixtures/Files/Host Images/host1.jpg</t>
@@ -1021,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,13 +1179,13 @@
         <v>94</v>
       </c>
       <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
         <v>214</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>215</v>
-      </c>
-      <c r="E2" t="s">
-        <v>216</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>211</v>
@@ -1218,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="AU2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,13 +1226,13 @@
         <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
       <c r="AU3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1246,13 +1243,13 @@
         <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="AU4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1263,7 +1260,7 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H5">
         <v>1995</v>
@@ -1273,6 +1270,9 @@
       </c>
       <c r="J5">
         <v>10</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1283,13 +1283,16 @@
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I6">
         <v>12</v>
       </c>
       <c r="J6">
         <v>10</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1300,6 +1303,9 @@
         <v>104</v>
       </c>
       <c r="E7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1311,6 +1317,9 @@
         <v>106</v>
       </c>
       <c r="E8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1322,6 +1331,9 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU9" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1333,6 +1345,9 @@
         <v>110</v>
       </c>
       <c r="E10" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU10" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1344,6 +1359,9 @@
         <v>112</v>
       </c>
       <c r="E11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU11" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1355,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353EE31C-688B-47C1-8735-F2037AC5AC07}">
-  <dimension ref="A1:AU14"/>
+  <dimension ref="A1:AS14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AZ16" sqref="AZ16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AS2" sqref="AS2:AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1385,7 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1375,311 +1393,332 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AH1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AK1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AN1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AO1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AP1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AR1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2">
+        <v>1998</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>5</v>
+      </c>
+      <c r="AS2" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H2">
-        <v>1998</v>
-      </c>
-      <c r="K2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>4</v>
-      </c>
-      <c r="Y2">
-        <v>4</v>
-      </c>
-      <c r="Z2">
-        <v>5</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="AS3" t="s">
         <v>216</v>
       </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="AS4" t="s">
         <v>216</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5">
+        <v>1995</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="AS5" t="s">
         <v>216</v>
       </c>
-      <c r="H5">
-        <v>1995</v>
-      </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="AS6" t="s">
         <v>216</v>
       </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C9" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>

--- a/cypress/fixtures/Excel Files/Club Data/Host Data/Host Data.xlsx
+++ b/cypress/fixtures/Excel Files/Club Data/Host Data/Host Data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Automations\cypress\fixtures\Excel Files\Club Data\Host Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B17A78C-CF8D-4D1F-81B4-135F5F623986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0603CAD5-1C77-4B0F-9D94-E05C6D7B1F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Moment Club" sheetId="1" r:id="rId1"/>
     <sheet name="Galaxy Club" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Eclipse Club" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="217">
   <si>
     <t>hostName</t>
   </si>
@@ -1375,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353EE31C-688B-47C1-8735-F2037AC5AC07}">
   <dimension ref="A1:AS14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AS2" sqref="AS2:AS11"/>
     </sheetView>
   </sheetViews>
@@ -1732,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD90B9DC-EB4D-4EA9-B847-AC35D331F14F}">
   <dimension ref="B1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,4 +2362,337 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADB9A42-FDAB-4C24-90DE-6EB695441A8B}">
+  <dimension ref="A1:AU11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2">
+        <v>1998</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5">
+        <v>1995</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>